--- a/ITSupplyCustomers.xlsx
+++ b/ITSupplyCustomers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/22agerstner/Dropbox/Mac/Desktop/SQL/finalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB28B7F-C16E-D844-8FB3-CCA7873CABE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56257EC2-5C0A-4741-B1D4-1A5EF450BE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{E4A2E447-5A0D-447F-A5A1-A2DDA8EC5F6E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{E4A2E447-5A0D-447F-A5A1-A2DDA8EC5F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="494">
   <si>
     <t>Customer</t>
   </si>
@@ -1512,6 +1512,12 @@
   </si>
   <si>
     <t>2300 Muscatine Ave</t>
+  </si>
+  <si>
+    <t>DBA</t>
+  </si>
+  <si>
+    <t>Larry</t>
   </si>
 </sst>
 </file>
@@ -2066,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8CD0E4-90C7-46E8-A78D-3F8A7CAB6B39}">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D62" sqref="D62:D64"/>
     </sheetView>
   </sheetViews>
@@ -3416,7 +3422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A4B3CA-9B73-544D-845B-0FB7D828275A}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -3744,11 +3750,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D7D05C-16B5-4248-A9C3-B5E69871C8E1}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
@@ -3798,7 +3808,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
         <v>296</v>
@@ -3819,7 +3829,7 @@
         <v>300</v>
       </c>
       <c r="H3">
-        <v>924203</v>
+        <v>94203</v>
       </c>
       <c r="I3">
         <v>9161014443</v>
@@ -3830,7 +3840,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B4" t="s">
         <v>308</v>
@@ -3862,7 +3872,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B5" t="s">
         <v>310</v>
@@ -3894,7 +3904,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="B6" t="s">
         <v>331</v>
@@ -3926,7 +3936,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="B7" t="s">
         <v>333</v>
@@ -3958,7 +3968,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="B8" t="s">
         <v>335</v>
@@ -3990,7 +4000,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="B9" t="s">
         <v>336</v>
@@ -4022,7 +4032,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="B10" t="s">
         <v>338</v>
@@ -4054,7 +4064,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="B11" t="s">
         <v>308</v>
@@ -4086,7 +4096,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="B12" t="s">
         <v>348</v>
@@ -4118,7 +4128,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>1011</v>
       </c>
       <c r="B13" t="s">
         <v>338</v>
@@ -4150,7 +4160,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>1012</v>
       </c>
       <c r="B14" t="s">
         <v>349</v>
@@ -4182,7 +4192,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="B15" t="s">
         <v>335</v>
@@ -4214,7 +4224,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>1014</v>
       </c>
       <c r="B16" t="s">
         <v>352</v>
@@ -4246,7 +4256,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>1015</v>
       </c>
       <c r="B17" t="s">
         <v>336</v>
@@ -4278,7 +4288,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>1016</v>
       </c>
       <c r="B18" t="s">
         <v>354</v>
@@ -4310,7 +4320,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17</v>
+        <v>1017</v>
       </c>
       <c r="B19" t="s">
         <v>355</v>
@@ -4342,7 +4352,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>1018</v>
       </c>
       <c r="B20" t="s">
         <v>348</v>
@@ -4374,7 +4384,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>1019</v>
       </c>
       <c r="B21" t="s">
         <v>356</v>
@@ -4406,7 +4416,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>1020</v>
       </c>
       <c r="B22" t="s">
         <v>331</v>
@@ -4438,7 +4448,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21</v>
+        <v>1021</v>
       </c>
       <c r="B23" t="s">
         <v>333</v>
@@ -4470,7 +4480,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>22</v>
+        <v>1022</v>
       </c>
       <c r="B24" t="s">
         <v>355</v>
@@ -4502,7 +4512,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>23</v>
+        <v>1023</v>
       </c>
       <c r="B25" t="s">
         <v>356</v>
@@ -4534,7 +4544,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>24</v>
+        <v>1024</v>
       </c>
       <c r="B26" t="s">
         <v>298</v>
@@ -4566,7 +4576,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>25</v>
+        <v>1025</v>
       </c>
       <c r="B27" t="s">
         <v>311</v>
@@ -4596,7 +4606,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>26</v>
+        <v>1026</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>480</v>
@@ -4628,7 +4638,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>27</v>
+        <v>1027</v>
       </c>
       <c r="B29" t="s">
         <v>359</v>
@@ -4660,7 +4670,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>28</v>
+        <v>1028</v>
       </c>
       <c r="B30" t="s">
         <v>360</v>
@@ -4692,7 +4702,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>1029</v>
       </c>
       <c r="B31" t="s">
         <v>359</v>
@@ -4724,7 +4734,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>30</v>
+        <v>1030</v>
       </c>
       <c r="B32" t="s">
         <v>362</v>
@@ -4756,7 +4766,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>31</v>
+        <v>1031</v>
       </c>
       <c r="B33" t="s">
         <v>352</v>
@@ -4788,10 +4798,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>100</v>
+        <v>1032</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="D34">
         <v>3724</v>
@@ -4817,7 +4830,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>33</v>
+        <v>1033</v>
       </c>
       <c r="B35" t="s">
         <v>358</v>
@@ -4849,7 +4862,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>34</v>
+        <v>1034</v>
       </c>
       <c r="B36" t="s">
         <v>394</v>
@@ -4881,7 +4894,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>35</v>
+        <v>1035</v>
       </c>
       <c r="B37" t="s">
         <v>395</v>
@@ -4913,7 +4926,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>36</v>
+        <v>1036</v>
       </c>
       <c r="B38" t="s">
         <v>397</v>
@@ -4945,7 +4958,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>37</v>
+        <v>1037</v>
       </c>
       <c r="B39" t="s">
         <v>397</v>
@@ -4977,7 +4990,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>38</v>
+        <v>1038</v>
       </c>
       <c r="B40" t="s">
         <v>401</v>
@@ -5009,7 +5022,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>39</v>
+        <v>1039</v>
       </c>
       <c r="B41" t="s">
         <v>400</v>
@@ -5039,9 +5052,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>40</v>
+        <v>1040</v>
       </c>
       <c r="B42" t="s">
         <v>402</v>
@@ -5071,9 +5084,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>41</v>
+        <v>1041</v>
       </c>
       <c r="B43" t="s">
         <v>349</v>
@@ -5105,7 +5118,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>42</v>
+        <v>1042</v>
       </c>
       <c r="B44" t="s">
         <v>333</v>
@@ -5137,7 +5150,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>43</v>
+        <v>1043</v>
       </c>
       <c r="B45" t="s">
         <v>335</v>
@@ -5169,7 +5182,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>1044</v>
       </c>
       <c r="B46" t="s">
         <v>338</v>
@@ -5201,7 +5214,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>45</v>
+        <v>1045</v>
       </c>
       <c r="B47" t="s">
         <v>404</v>
@@ -5233,7 +5246,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>46</v>
+        <v>1046</v>
       </c>
       <c r="B48" t="s">
         <v>310</v>
@@ -5265,7 +5278,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>47</v>
+        <v>1047</v>
       </c>
       <c r="B49" t="s">
         <v>338</v>
@@ -5297,7 +5310,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
+        <v>1048</v>
       </c>
       <c r="B50" t="s">
         <v>349</v>
@@ -5329,7 +5342,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>49</v>
+        <v>1049</v>
       </c>
       <c r="B51" t="s">
         <v>359</v>
@@ -5361,7 +5374,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>50</v>
+        <v>1050</v>
       </c>
       <c r="B52" t="s">
         <v>333</v>
@@ -5393,7 +5406,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>1051</v>
       </c>
       <c r="B53" t="s">
         <v>311</v>
@@ -5425,7 +5438,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>52</v>
+        <v>1052</v>
       </c>
       <c r="B54" t="s">
         <v>311</v>
@@ -5457,7 +5470,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>53</v>
+        <v>1053</v>
       </c>
       <c r="B55" t="s">
         <v>358</v>
@@ -5489,7 +5502,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>54</v>
+        <v>1054</v>
       </c>
       <c r="B56" t="s">
         <v>333</v>
@@ -5521,7 +5534,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>55</v>
+        <v>1055</v>
       </c>
       <c r="B57" t="s">
         <v>349</v>
@@ -5553,7 +5566,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>56</v>
+        <v>1056</v>
       </c>
       <c r="B58" t="s">
         <v>359</v>
@@ -5585,7 +5598,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>57</v>
+        <v>1057</v>
       </c>
       <c r="B59" t="s">
         <v>359</v>
@@ -5617,7 +5630,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>58</v>
+        <v>1058</v>
       </c>
       <c r="B60" t="s">
         <v>349</v>
@@ -5649,7 +5662,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>59</v>
+        <v>1059</v>
       </c>
       <c r="B61" t="s">
         <v>359</v>
@@ -5681,7 +5694,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>60</v>
+        <v>1060</v>
       </c>
       <c r="B62" t="s">
         <v>358</v>
@@ -5713,7 +5726,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>61</v>
+        <v>1061</v>
       </c>
       <c r="B63" t="s">
         <v>411</v>
@@ -5745,7 +5758,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>62</v>
+        <v>1062</v>
       </c>
       <c r="B64" t="s">
         <v>411</v>
@@ -5777,7 +5790,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>63</v>
+        <v>1063</v>
       </c>
       <c r="B65" t="s">
         <v>412</v>
@@ -5809,7 +5822,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>64</v>
+        <v>1064</v>
       </c>
       <c r="B66" t="s">
         <v>296</v>
@@ -5841,7 +5854,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>65</v>
+        <v>1065</v>
       </c>
       <c r="B67" t="s">
         <v>296</v>
@@ -5873,7 +5886,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>66</v>
+        <v>1066</v>
       </c>
       <c r="B68" t="s">
         <v>296</v>
@@ -5905,7 +5918,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>67</v>
+        <v>1067</v>
       </c>
       <c r="B69" t="s">
         <v>400</v>
@@ -5937,7 +5950,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>68</v>
+        <v>1068</v>
       </c>
       <c r="B70" t="s">
         <v>404</v>
@@ -5969,7 +5982,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>69</v>
+        <v>1069</v>
       </c>
       <c r="B71" t="s">
         <v>401</v>
@@ -6001,7 +6014,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>70</v>
+        <v>1070</v>
       </c>
       <c r="B72" t="s">
         <v>415</v>
@@ -6033,7 +6046,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>71</v>
+        <v>1071</v>
       </c>
       <c r="B73" t="s">
         <v>404</v>
@@ -6065,7 +6078,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>72</v>
+        <v>1072</v>
       </c>
       <c r="B74" t="s">
         <v>404</v>
@@ -6097,7 +6110,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>73</v>
+        <v>1073</v>
       </c>
       <c r="B75" t="s">
         <v>416</v>
@@ -6129,7 +6142,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>74</v>
+        <v>1074</v>
       </c>
       <c r="B76" t="s">
         <v>416</v>
@@ -6161,7 +6174,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>75</v>
+        <v>1075</v>
       </c>
       <c r="B77" t="s">
         <v>415</v>
@@ -6193,7 +6206,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>76</v>
+        <v>1076</v>
       </c>
       <c r="B78" t="s">
         <v>411</v>
@@ -6225,7 +6238,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>77</v>
+        <v>1077</v>
       </c>
       <c r="B79" t="s">
         <v>404</v>
@@ -6257,7 +6270,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>78</v>
+        <v>1078</v>
       </c>
       <c r="B80" t="s">
         <v>415</v>
@@ -6289,7 +6302,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>79</v>
+        <v>1079</v>
       </c>
       <c r="B81" t="s">
         <v>416</v>
@@ -6321,7 +6334,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>80</v>
+        <v>1080</v>
       </c>
       <c r="B82" t="s">
         <v>416</v>
@@ -6353,7 +6366,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>81</v>
+        <v>1081</v>
       </c>
       <c r="B83" t="s">
         <v>358</v>
@@ -6385,7 +6398,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>82</v>
+        <v>1082</v>
       </c>
       <c r="B84" t="s">
         <v>394</v>
@@ -6417,7 +6430,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>83</v>
+        <v>1083</v>
       </c>
       <c r="B85" t="s">
         <v>333</v>
@@ -6449,7 +6462,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>84</v>
+        <v>1084</v>
       </c>
       <c r="B86" t="s">
         <v>415</v>
@@ -6481,7 +6494,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>85</v>
+        <v>1085</v>
       </c>
       <c r="B87" t="s">
         <v>310</v>
@@ -6513,7 +6526,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>86</v>
+        <v>1086</v>
       </c>
       <c r="B88" t="s">
         <v>338</v>
@@ -6545,7 +6558,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>87</v>
+        <v>1087</v>
       </c>
       <c r="B89" t="s">
         <v>404</v>
@@ -6575,9 +6588,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>88</v>
+        <v>1088</v>
       </c>
       <c r="B90" t="s">
         <v>412</v>
@@ -6607,9 +6620,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>89</v>
+        <v>1089</v>
       </c>
       <c r="B91" t="s">
         <v>278</v>
@@ -6636,9 +6649,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>90</v>
+        <v>1090</v>
       </c>
       <c r="B92" t="s">
         <v>279</v>
@@ -6662,9 +6675,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>91</v>
+        <v>1091</v>
       </c>
       <c r="B93" t="s">
         <v>163</v>
@@ -6688,9 +6701,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>92</v>
+        <v>1092</v>
       </c>
       <c r="B94" t="s">
         <v>164</v>
